--- a/sources/real_median_equivalized_personal_income-2022-12-15.xlsx
+++ b/sources/real_median_equivalized_personal_income-2022-12-15.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\serv03cl\VDIprofiles\userfiles\ODBXQ1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Major Projects and Issues\2018_GDP &amp; Beyond\Well-Being Measures\October 2023\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A591A36-CE99-4E56-86D9-0920A42EA26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC32602D-2280-4FFA-AB5E-076227D9DC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="4005" windowWidth="22710" windowHeight="12990" xr2:uid="{258722B5-6086-461C-A2A4-F13A9F6E7160}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{258722B5-6086-461C-A2A4-F13A9F6E7160}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,20 +36,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Year</t>
   </si>
   <si>
     <t>Eq. Median PI ($2012)</t>
   </si>
+  <si>
+    <t>Rebased ($2017)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="\$##,###"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -95,13 +100,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,199 +427,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D867ADC-27FC-42C3-9F86-ADA5282C8A13}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>2000</v>
       </c>
       <c r="B2" s="3">
         <v>45719</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="7">
+        <v>48362.720000000001</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2001</v>
       </c>
       <c r="B3" s="3">
         <v>45934</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="7">
+        <v>48590.44</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2002</v>
       </c>
       <c r="B4" s="3">
         <v>45790</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="7">
+        <v>48437.760000000002</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>2003</v>
       </c>
       <c r="B5" s="3">
         <v>46370</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="7">
+        <v>49051.13</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>2004</v>
       </c>
       <c r="B6" s="3">
         <v>46605</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="7">
+        <v>49300.3</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>2005</v>
       </c>
       <c r="B7" s="3">
         <v>47185</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="7">
+        <v>49913.23</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>2006</v>
       </c>
       <c r="B8" s="3">
         <v>47953</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="7">
+        <v>50725.03</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>2007</v>
       </c>
       <c r="B9" s="3">
         <v>49875</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="7">
+        <v>52758.04</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>2008</v>
       </c>
       <c r="B10" s="3">
         <v>50332</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="7">
+        <v>53242.14</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>2009</v>
       </c>
       <c r="B11" s="3">
         <v>49582</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="7">
+        <v>52448.51</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>2010</v>
       </c>
       <c r="B12" s="3">
         <v>51213</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="7">
+        <v>54173.59</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>2011</v>
       </c>
       <c r="B13" s="3">
         <v>50281</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="7">
+        <v>53188.36</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>2012</v>
       </c>
       <c r="B14" s="3">
         <v>50528</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="7">
+        <v>53449.51</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>2013</v>
       </c>
       <c r="B15" s="3">
         <v>50969</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="7">
+        <v>53935.03</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="5"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>2014</v>
       </c>
       <c r="B16" s="3">
         <v>51555</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="7">
+        <v>54616</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="5"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>2015</v>
       </c>
       <c r="B17" s="3">
         <v>53938</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="7">
+        <v>57162.2</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>2016</v>
       </c>
       <c r="B18" s="3">
         <v>54381</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="7">
+        <v>57625.61</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>2017</v>
       </c>
       <c r="B19" s="3">
         <v>55065</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="7">
+        <v>58398.31</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="5"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>2018</v>
       </c>
       <c r="B20" s="3">
         <v>56588</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="7">
+        <v>60065.11</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>2019</v>
       </c>
       <c r="B21" s="3">
         <v>58998</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="7">
+        <v>62657.01</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="5"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>2020</v>
       </c>
       <c r="B22" s="3">
         <v>62661</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="7">
+        <v>66559.3</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="5"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>2021</v>
       </c>
       <c r="B23" s="3">
         <v>64188</v>
       </c>
+      <c r="C23" s="7">
+        <v>68086.05</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="5"/>
+      <c r="K23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>